--- a/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/CHECK_304.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/CHECK_304.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AF4AD9-5AD3-479F-AD79-AB7247537167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D86524B-C6D1-4103-B27D-BED3D96E4B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,19 @@
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -58,12 +71,6 @@
     <t>นายเจษฎาพล   เรือนคำ</t>
   </si>
   <si>
-    <t>68143206007-4</t>
-  </si>
-  <si>
-    <t>นายกิตตินันท์   ต๊ะแก้ว</t>
-  </si>
-  <si>
     <t>68143206013-2</t>
   </si>
   <si>
@@ -128,6 +135,12 @@
   </si>
   <si>
     <t>ข</t>
+  </si>
+  <si>
+    <t>68143206019-9</t>
+  </si>
+  <si>
+    <t>นายศิรวิชญ์  พิชญวศิน</t>
   </si>
 </sst>
 </file>
@@ -164,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -202,11 +215,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -221,12 +260,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,7 +580,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -550,105 +595,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.8">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -678,13 +723,13 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.8">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
@@ -712,13 +757,13 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.8">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -768,7 +813,7 @@
         <v>15</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.8">
@@ -778,21 +823,21 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -813,21 +858,21 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -848,21 +893,21 @@
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -883,21 +928,21 @@
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -918,21 +963,21 @@
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -951,23 +996,23 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="10"/>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -986,23 +1031,23 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1021,23 +1066,23 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1056,23 +1101,23 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="8"/>
       <c r="E16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -1091,23 +1136,23 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="8"/>
       <c r="E17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -1124,6 +1169,16 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -1131,16 +1186,6 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/CHECK_304.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/CHECK_304.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D86524B-C6D1-4103-B27D-BED3D96E4B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A66A8EA-8F9D-49BB-91AC-556CB3F17C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="37">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>นายศิรวิชญ์  พิชญวศิน</t>
+  </si>
+  <si>
+    <t>ก</t>
   </si>
 </sst>
 </file>
@@ -260,18 +263,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,7 +583,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -595,105 +598,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -711,12 +714,24 @@
       <c r="H5" s="2">
         <v>7</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="I5" s="2">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2">
+        <v>9</v>
+      </c>
+      <c r="M5" s="2">
+        <v>10</v>
+      </c>
+      <c r="N5" s="2">
+        <v>10</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -727,9 +742,9 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.8">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
@@ -745,12 +760,24 @@
       <c r="H6" s="2">
         <v>31</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="I6" s="2">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>9</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -761,9 +788,9 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.8">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -823,10 +850,10 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
@@ -839,12 +866,24 @@
       <c r="H8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="I8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -858,10 +897,10 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
@@ -874,12 +913,24 @@
       <c r="H9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="I9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -893,10 +944,10 @@
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="3" t="s">
         <v>28</v>
       </c>
@@ -909,12 +960,24 @@
       <c r="H10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="I10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -928,10 +991,10 @@
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="3" t="s">
         <v>28</v>
       </c>
@@ -944,12 +1007,24 @@
       <c r="H11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="I11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -963,10 +1038,10 @@
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="3" t="s">
         <v>28</v>
       </c>
@@ -979,12 +1054,24 @@
       <c r="H12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="I12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -998,10 +1085,10 @@
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1014,12 +1101,24 @@
       <c r="H13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="I13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -1033,10 +1132,10 @@
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="3" t="s">
         <v>28</v>
       </c>
@@ -1049,12 +1148,24 @@
       <c r="H14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="I14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -1068,10 +1179,10 @@
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1084,12 +1195,24 @@
       <c r="H15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="I15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -1103,10 +1226,10 @@
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="3" t="s">
         <v>28</v>
       </c>
@@ -1119,12 +1242,24 @@
       <c r="H16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="I16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -1138,10 +1273,10 @@
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="3" t="s">
         <v>28</v>
       </c>
@@ -1154,12 +1289,24 @@
       <c r="H17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="I17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -1169,12 +1316,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
@@ -1186,6 +1327,12 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
